--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject47.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject47.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,13 +152,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>0</v>
+        <v>0.63369668097288656</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -176,13 +176,13 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>0</v>
+        <v>0.74974812874928987</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>1</v>
+        <v>0.79608560530905503</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -302,7 +302,7 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH1" s="0">
         <v>0</v>
@@ -340,13 +340,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>0.79890565422218029</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -385,10 +385,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>0.68540046825583145</v>
       </c>
       <c r="S2" s="0">
-        <v>1</v>
+        <v>0.83511760804069501</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0</v>
+        <v>0.98431425607162359</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.83130415354009402</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="0">
-        <v>0</v>
+        <v>0.63244663228229414</v>
       </c>
       <c r="AN3" s="0">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0</v>
+        <v>0.87817273516482364</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.69235672719825458</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.71532732037706248</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0</v>
+        <v>0.78899475568434507</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.9765173339765808</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>0</v>
+        <v>0.72097359220182733</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0</v>
+        <v>0.73749567082904655</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>0.67970827338579654</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.97897284390696981</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>0</v>
+        <v>0.81929824008627516</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.61160224015049824</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0</v>
+        <v>0.64410830265875685</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0</v>
+        <v>0.91560319217482478</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0</v>
+        <v>0.78561556546906364</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="0">
-        <v>0</v>
+        <v>0.97574715103716914</v>
       </c>
       <c r="BI6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0</v>
+        <v>0.7213945096889125</v>
       </c>
     </row>
     <row r="7">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.52826926775086713</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0</v>
+        <v>0.5283760861571889</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>0</v>
+        <v>0.50869298141556207</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0</v>
+        <v>0.59834315605554522</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0</v>
+        <v>0.51992186370111426</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>0.91557965833931765</v>
       </c>
       <c r="AB8" s="0">
-        <v>0</v>
+        <v>0.79202017143353032</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>0</v>
+        <v>0.73803467882388518</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>0</v>
+        <v>0.99782353174643657</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>0.83889209981213608</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.86967017492176302</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0</v>
+        <v>0.55675905566186346</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0</v>
+        <v>0.92583499457392326</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0</v>
+        <v>0.788220415283443</v>
       </c>
       <c r="BA10" s="0">
-        <v>0</v>
+        <v>0.66363601728426547</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>1</v>
+        <v>0.52329647157468151</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="0">
-        <v>0</v>
+        <v>0.81053593307634653</v>
       </c>
       <c r="BO10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
+        <v>0.94130326146522114</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0</v>
+        <v>0.82698516210995865</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>0</v>
+        <v>0.70565837812983712</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.89465455156385443</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0</v>
+        <v>0.75776509663796032</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>0</v>
+        <v>0.7660196281467031</v>
       </c>
       <c r="AO12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>0</v>
+        <v>0.58136575127588741</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>0.80823070208948722</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>0</v>
+        <v>0.52978783995807999</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.68194047589283158</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>0</v>
+        <v>0.75249006071546798</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>0.83498339382888909</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.90061378155348115</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0</v>
+        <v>0.97781304868050589</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0</v>
+        <v>0.76578050290747179</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.51381336528170651</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.87023457809640836</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.56167904520115641</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0</v>
+        <v>0.69501121558952184</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>0.88723684067540287</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.97391670310456102</v>
       </c>
       <c r="BK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="X16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="0">
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0</v>
+        <v>0.86261249446815358</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.90758485259106569</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>0.99718051199086699</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>0</v>
+        <v>0.59855089664950645</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.54950651955598473</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>0</v>
+        <v>0.9579611983698566</v>
       </c>
       <c r="Z17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0</v>
+        <v>0.59538863032402767</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0</v>
+        <v>0.66816429522278487</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>0.97234920188701945</v>
       </c>
       <c r="C18" s="0">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3783,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>0</v>
+        <v>0.51009734171837762</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0</v>
+        <v>0.98099936710720026</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>0.82443854617857482</v>
       </c>
       <c r="B19" s="0">
-        <v>1</v>
+        <v>0.63499598717085837</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3923,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.58581787236989358</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0</v>
+        <v>0.95984761509500438</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0</v>
+        <v>0.62767124064583113</v>
       </c>
       <c r="AB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0</v>
+        <v>0.57236678310077416</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.87750819579831107</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0</v>
+        <v>0.73911312641078464</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.57079069768589585</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0</v>
+        <v>0.6431123020378483</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>0.8205877033210125</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4541,22 +4541,22 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>0</v>
+        <v>0.87440907691248426</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.82481491469238899</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.85753508899413322</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4834,19 +4834,19 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>0</v>
+        <v>0.77010956716318479</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>0</v>
+        <v>0.98148306245409733</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>0.96395713527045412</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -4899,19 +4899,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.82339287689141472</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.72034690868034179</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.68521827402884083</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0</v>
+        <v>0.87767058927123243</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.86745661959134002</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>0</v>
+        <v>0.91374084385486332</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.93360926146772716</v>
       </c>
       <c r="P26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>0</v>
+        <v>0.87870818368467518</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5449,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="BF26" s="0">
-        <v>0</v>
+        <v>0.78344486672628377</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
       </c>
       <c r="BH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>0.76449087381258396</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0</v>
+        <v>0.98852588520675111</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.85199727817816784</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,13 +5568,13 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>0</v>
+        <v>0.52910121959186429</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.69054868243229306</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0</v>
+        <v>0.8498102588915859</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
+        <v>0.85271961864728252</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>0.92389359216454547</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.83013240890544671</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -5995,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.96054328633323915</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="0">
-        <v>0</v>
+        <v>0.91582084131791486</v>
       </c>
       <c r="AP29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0</v>
+        <v>0.63981106872231752</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6076,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>0</v>
+        <v>0.80409201898332605</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>0</v>
+        <v>0.82494846059754146</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.83927350131880885</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6156,16 +6156,16 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.59696696588671816</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.71169632538074057</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0</v>
+        <v>0.96642864775296655</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6285,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>0</v>
+        <v>0.84182270462701969</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
       </c>
       <c r="BL30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM30" s="0">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>0.81579792655471706</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>0</v>
+        <v>0.98142952700351538</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.88257070369450796</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>0</v>
+        <v>0.97680170396311672</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0</v>
+        <v>0.70835435018150039</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6744,13 +6744,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0</v>
+        <v>0.57537613193029813</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.92258256255944948</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.99016134486733809</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0</v>
+        <v>0.99239286138148852</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>0.52234340495426057</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>0</v>
+        <v>0.85356397342973112</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7007,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.84630552655181357</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.59762805702576816</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7094,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0</v>
+        <v>0.80397525966343408</v>
       </c>
       <c r="BF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7127,12 +7127,12 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0</v>
+        <v>0.64641318627356559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.77814061728514938</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.69718402598731233</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.93374725501777978</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.64031968211050383</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.71483503365991563</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.50740895933522778</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.68705133399198193</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.81844726465296902</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.87528178128691181</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.78260566169452606</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>0</v>
+        <v>0.813754899077199</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7786,19 +7786,19 @@
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>0</v>
+        <v>0.71287489727275244</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0</v>
+        <v>0.95450810024551647</v>
       </c>
       <c r="R38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0</v>
+        <v>0.93276736362340806</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.96046480059082517</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>0.93064365753564071</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -7974,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>0</v>
+        <v>0.57944679258729437</v>
       </c>
       <c r="H39" s="0">
-        <v>0</v>
+        <v>0.59245921311722993</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>0</v>
+        <v>0.94370781846611318</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8130,16 +8130,16 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
       </c>
       <c r="BJ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0</v>
+        <v>0.59281410591465944</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.50835618295597884</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>0</v>
+        <v>0.82163811074945359</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>0</v>
+        <v>0.58625925345849983</v>
       </c>
       <c r="AD41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.72167409897278012</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.73813235366933327</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8670,13 +8670,13 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0</v>
+        <v>0.91994275279065252</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.79077587370807945</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="BK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0</v>
+        <v>0.54387148595190715</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.96106621187003749</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0</v>
+        <v>0.51159341484129262</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0</v>
+        <v>0.52487238552761928</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.98409832335600078</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
@@ -9231,19 +9231,19 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>0.59999333437691482</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9297,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.97796538535743049</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9369,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.61362707716991216</v>
       </c>
       <c r="BI45" s="0">
-        <v>0</v>
+        <v>0.57211758462598117</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.69765893035619309</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,31 +9536,31 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.84023687729333085</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.96621016597732146</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0</v>
+        <v>0.95873582194712392</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.8695546045623963</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
       </c>
       <c r="BC46" s="0">
-        <v>0</v>
+        <v>0.93585007441670243</v>
       </c>
       <c r="BD46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.92507416944319887</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.65353445695806645</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.9564855103028358</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="BG47" s="0">
-        <v>0</v>
+        <v>0.81274096523913331</v>
       </c>
       <c r="BH47" s="0">
         <v>0</v>
@@ -9831,13 +9831,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0</v>
+        <v>0.51407245930222767</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>0</v>
+        <v>0.666982455024412</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.7102349185421506</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.5040454085353383</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>0.99433214040815932</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0</v>
+        <v>0.58653371101460539</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.51530997416302082</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>0</v>
+        <v>0.91402113351026937</v>
       </c>
       <c r="U50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.94028616528026587</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.94184014441390929</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0</v>
+        <v>0.60647323508615969</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>0</v>
+        <v>0.96237519393162407</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.61019580617680313</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>0.98557326951180924</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>0</v>
+        <v>0.86131589430878974</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>0</v>
+        <v>0.84372166003524929</v>
       </c>
       <c r="AA52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.91261283825726003</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0</v>
+        <v>0.76969040978716652</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10975,22 +10975,22 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.88192613498248895</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11082,22 +11082,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0</v>
+        <v>0.77191394770368582</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>0</v>
+        <v>0.96493393313596565</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0</v>
+        <v>0.57505202456630777</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11238,10 +11238,10 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>0</v>
+        <v>0.79806612790659837</v>
       </c>
       <c r="BN54" s="0">
-        <v>0</v>
+        <v>0.89642221875665229</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11264,10 +11264,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>0</v>
+        <v>0.99925400137425724</v>
       </c>
       <c r="F55" s="0">
-        <v>0</v>
+        <v>0.62721078665646979</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.74791620179653617</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.65846732518316031</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0</v>
+        <v>0.51492078631658666</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.81363903977487873</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0</v>
+        <v>0.64266517380122146</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.80414061303234785</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11632,13 +11632,13 @@
         <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.58754814122196031</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>0</v>
+        <v>0.53909580051201389</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>0</v>
+        <v>0.90515654148446278</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0</v>
+        <v>0.56569301738435607</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.78013577480177232</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>0</v>
+        <v>0.66295395880144015</v>
       </c>
     </row>
     <row r="58">
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0</v>
+        <v>0.58667556949800281</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11921,13 +11921,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0</v>
+        <v>0.809012336206544</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.95506559283940851</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0</v>
+        <v>0.74942306225171218</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="AH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12011,10 +12011,10 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.74570350993299706</v>
       </c>
       <c r="AW58" s="0">
-        <v>0</v>
+        <v>0.59794209605036752</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.51459485718763998</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.88334260702807432</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12106,19 +12106,19 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>0</v>
+        <v>0.9698735785907705</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
       </c>
       <c r="M59" s="0">
-        <v>0</v>
+        <v>0.77866662732573699</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0</v>
+        <v>0.57169230107458358</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12214,13 +12214,13 @@
         <v>0</v>
       </c>
       <c r="AU59" s="0">
-        <v>0</v>
+        <v>0.92751352806149123</v>
       </c>
       <c r="AV59" s="0">
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.56208547384228003</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.74252280992909125</v>
       </c>
       <c r="BE59" s="0">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.55255034730095942</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="0">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.73250406656285816</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.76301328634830057</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>1</v>
+        <v>0.91601423857261821</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>0</v>
+        <v>0.87442801761307787</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>0</v>
+        <v>0.58492385131875835</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0</v>
+        <v>0.83729092424259777</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>0</v>
+        <v>0.82041348799337555</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0</v>
+        <v>0.6094146692121265</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12718,13 +12718,13 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>0</v>
+        <v>0.97362362279438552</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.97196843156152934</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>0</v>
+        <v>0.88044020128143896</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="0">
         <v>0</v>
@@ -12847,13 +12847,13 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="0">
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0</v>
+        <v>0.82737781798051602</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12942,10 +12942,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.57838782593453497</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0</v>
+        <v>0.70531202149831618</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.9967323443777496</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.88471521160976496</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="0">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.69350568127197665</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.87350468004802506</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>0.88582967468290696</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0</v>
+        <v>0.60792559920238198</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>0</v>
+        <v>0.86499530268398406</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0</v>
+        <v>0.54481791717802786</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BB65" s="0">
-        <v>0</v>
+        <v>0.92528066003394982</v>
       </c>
       <c r="BC65" s="0">
         <v>0</v>
@@ -13545,13 +13545,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0</v>
+        <v>0.68855807298804661</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>0</v>
+        <v>0.95462961739345809</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13572,19 +13572,19 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0</v>
+        <v>0.89730205219142056</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.76798012693388584</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>0</v>
+        <v>0.96172573028862818</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.81688277434621892</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.81233981505919339</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>0</v>
+        <v>0.93318383974178254</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.54328430133913441</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>0.85205861117863713</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.83814111311153605</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.80413790992981826</v>
       </c>
     </row>
     <row r="68">
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>0</v>
+        <v>0.50438654993563437</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0</v>
+        <v>0.7697577873639736</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>0</v>
+        <v>0.93193685994814524</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.94078331758237221</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject47.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject47.xlsx
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="0">
-        <v>0.63369668097288656</v>
+        <v>0.83889209981213608</v>
       </c>
       <c r="J1" s="0">
         <v>0</v>
@@ -176,13 +176,13 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.74974812874928987</v>
+        <v>0.99718051199086699</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>0.79608560530905503</v>
+        <v>0.82443854617857482</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0.68540046825583145</v>
+        <v>0.97234920188701945</v>
       </c>
       <c r="S2" s="0">
         <v>0.83511760804069501</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="0">
-        <v>0.63244663228229414</v>
+        <v>0.93064365753564071</v>
       </c>
       <c r="AN3" s="0">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="0">
-        <v>0.87817273516482364</v>
+        <v>0.88582967468290696</v>
       </c>
       <c r="BN3" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0.71532732037706248</v>
+        <v>0.86967017492176302</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0.78899475568434507</v>
+        <v>0.83498339382888909</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0.73749567082904655</v>
+        <v>0.93318383974178254</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0.67970827338579654</v>
+        <v>0.79890565422218029</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.81929824008627516</v>
+        <v>0.99925400137425724</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.61160224015049824</v>
+        <v>0.69235672719825458</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0.64410830265875685</v>
+        <v>0.80823070208948722</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.52826926775086713</v>
+        <v>0.97897284390696981</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.5283760861571889</v>
+        <v>0.68521827402884083</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.50869298141556207</v>
+        <v>0.57944679258729437</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0.59834315605554522</v>
+        <v>0.60792559920238198</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0.51992186370111426</v>
+        <v>0.8205877033210125</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0.91557965833931765</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.79202017143353032</v>
+        <v>0.8498102588915859</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.55675905566186346</v>
+        <v>0.85271961864728252</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.788220415283443</v>
+        <v>0.98557326951180924</v>
       </c>
       <c r="BA10" s="0">
-        <v>0.66363601728426547</v>
+        <v>0.76969040978716652</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>0.52329647157468151</v>
+        <v>0.91601423857261821</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>0.82698516210995865</v>
+        <v>0.9698735785907705</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>0.70565837812983712</v>
+        <v>0.97362362279438552</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.75776509663796032</v>
+        <v>0.91374084385486332</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>0.58136575127588741</v>
+        <v>0.95462961739345809</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.52978783995807999</v>
+        <v>0.71287489727275244</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>0.75249006071546798</v>
+        <v>0.77866662732573699</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0.76578050290747179</v>
+        <v>0.77191394770368582</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.51381336528170651</v>
+        <v>0.90061378155348115</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.56167904520115641</v>
+        <v>0.93360926146772716</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.69501121558952184</v>
+        <v>0.97680170396311672</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0.86261249446815358</v>
+        <v>0.96493393313596565</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>0.59855089664950645</v>
+        <v>0.97781304868050589</v>
       </c>
       <c r="O17" s="0">
-        <v>0.54950651955598473</v>
+        <v>0.87023457809640836</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.59538863032402767</v>
+        <v>0.95450810024551647</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>0.51009734171837762</v>
+        <v>0.86131589430878974</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0.82443854617857482</v>
       </c>
       <c r="B19" s="0">
-        <v>0.63499598717085837</v>
+        <v>0.83511760804069501</v>
       </c>
       <c r="C19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.58581787236989358</v>
+        <v>0.59696696588671816</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.62767124064583113</v>
+        <v>0.98852588520675111</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0.57236678310077416</v>
+        <v>0.91402113351026937</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0.87750819579831107</v>
+        <v>0.95506559283940851</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.73911312641078464</v>
+        <v>0.96237519393162407</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.57079069768589585</v>
+        <v>0.74791620179653617</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.6431123020378483</v>
+        <v>0.90515654148446278</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>0.77010956716318479</v>
+        <v>0.87442801761307787</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0.96395713527045412</v>
+        <v>0.9765173339765808</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0.82339287689141472</v>
+        <v>0.89465455156385443</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.72034690868034179</v>
+        <v>0.85753508899413322</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.87767058927123243</v>
+        <v>0.9579611983698566</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0.76449087381258396</v>
+        <v>0.91557965833931765</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.85199727817816784</v>
+        <v>0.86745661959134002</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>0.52910121959186429</v>
+        <v>0.666982455024412</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0.69054868243229306</v>
+        <v>0.83130415354009402</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0.63981106872231752</v>
+        <v>0.64266517380122146</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.71169632538074057</v>
+        <v>0.83013240890544671</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>0.84182270462701969</v>
+        <v>0.88044020128143896</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.81579792655471706</v>
+        <v>0.92389359216454547</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0.88257070369450796</v>
+        <v>0.94028616528026587</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0.70835435018150039</v>
+        <v>0.95984761509500438</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>0.57537613193029813</v>
+        <v>0.94130326146522114</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>0.52234340495426057</v>
+        <v>0.72097359220182733</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>0.85356397342973112</v>
+        <v>0.87440907691248426</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.84630552655181357</v>
+        <v>0.92258256255944948</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.59762805702576816</v>
+        <v>0.68705133399198193</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0.64641318627356559</v>
+        <v>0.7697577873639736</v>
       </c>
     </row>
     <row r="35">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.77814061728514938</v>
+        <v>0.82481491469238899</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.69718402598731233</v>
+        <v>0.99016134486733809</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.93374725501777978</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.64031968211050383</v>
+        <v>0.87528178128691181</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.50740895933522778</v>
+        <v>0.96054328633323915</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0.68705133399198193</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.81844726465296902</v>
+        <v>0.93374725501777978</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0.78260566169452606</v>
+        <v>0.97796538535743049</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>0.813754899077199</v>
+        <v>0.86499530268398406</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.93276736362340806</v>
+        <v>0.98142952700351538</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0.57944679258729437</v>
       </c>
       <c r="H39" s="0">
-        <v>0.59245921311722993</v>
+        <v>0.73803467882388518</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>0.59281410591465944</v>
+        <v>0.7660196281467031</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.50835618295597884</v>
+        <v>0.96046480059082517</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="0">
-        <v>0.58625925345849983</v>
+        <v>0.91582084131791486</v>
       </c>
       <c r="AD41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.72167409897278012</v>
+        <v>0.96106621187003749</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0.73813235366933327</v>
+        <v>0.76798012693388584</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0.91994275279065252</v>
+        <v>0.99239286138148852</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0.79077587370807945</v>
+        <v>0.94184014441390929</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0.54387148595190715</v>
+        <v>0.91560319217482478</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>0.51159341484129262</v>
+        <v>0.99782353174643657</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0.52487238552761928</v>
+        <v>0.94370781846611318</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.59999333437691482</v>
+        <v>0.88723684067540287</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9369,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0.61362707716991216</v>
+        <v>0.73250406656285816</v>
       </c>
       <c r="BI45" s="0">
-        <v>0.57211758462598117</v>
+        <v>0.83729092424259777</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.69765893035619309</v>
+        <v>0.98409832335600078</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.84023687729333085</v>
+        <v>0.9564855103028358</v>
       </c>
       <c r="AV46" s="0">
         <v>0.96621016597732146</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0.8695546045623963</v>
+        <v>0.88192613498248895</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0.92507416944319887</v>
+        <v>0.9967323443777496</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0.65353445695806645</v>
+        <v>0.68194047589283158</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="BG47" s="0">
-        <v>0.81274096523913331</v>
+        <v>0.92751352806149123</v>
       </c>
       <c r="BH47" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.51407245930222767</v>
+        <v>0.66816429522278487</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.7102349185421506</v>
+        <v>0.96621016597732146</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0.5040454085353383</v>
+        <v>0.74570350993299706</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>0.58653371101460539</v>
+        <v>0.59794209605036752</v>
       </c>
       <c r="BG49" s="0">
-        <v>0.51530997416302082</v>
+        <v>0.56208547384228003</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0.60647323508615969</v>
+        <v>0.95873582194712392</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.61019580617680313</v>
+        <v>0.91261283825726003</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>0.84372166003524929</v>
+        <v>0.87870818368467518</v>
       </c>
       <c r="AA52" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0.57505202456630777</v>
+        <v>0.82737781798051602</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11238,10 +11238,10 @@
         <v>0</v>
       </c>
       <c r="BM54" s="0">
-        <v>0.79806612790659837</v>
+        <v>0.92528066003394982</v>
       </c>
       <c r="BN54" s="0">
-        <v>0.89642221875665229</v>
+        <v>0.96172573028862818</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0.99925400137425724</v>
       </c>
       <c r="F55" s="0">
-        <v>0.62721078665646979</v>
+        <v>0.78561556546906364</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.65846732518316031</v>
+        <v>0.71483503365991563</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0.51492078631658666</v>
+        <v>0.93585007441670243</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.80414061303234785</v>
+        <v>0.81363903977487873</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11632,13 +11632,13 @@
         <v>0</v>
       </c>
       <c r="BG56" s="0">
-        <v>0.58754814122196031</v>
+        <v>0.74252280992909125</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>0.53909580051201389</v>
+        <v>0.82041348799337555</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0.56569301738435607</v>
+        <v>0.80397525966343408</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>0.66295395880144015</v>
+        <v>0.93193685994814524</v>
       </c>
     </row>
     <row r="58">
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0.58667556949800281</v>
+        <v>0.92583499457392326</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0.809012336206544</v>
+        <v>0.98099936710720026</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0.74942306225171218</v>
+        <v>0.78344486672628377</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.51459485718763998</v>
+        <v>0.78013577480177232</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0.88334260702807432</v>
+        <v>0.88471521160976496</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0.57169230107458358</v>
+        <v>0.96642864775296655</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0.55255034730095942</v>
+        <v>0.97574715103716914</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>0.58492385131875835</v>
+        <v>0.80409201898332605</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0.6094146692121265</v>
+        <v>0.98431425607162359</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0.97196843156152934</v>
+        <v>0.97391670310456102</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0.57838782593453497</v>
+        <v>0.90758485259106569</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.70531202149831618</v>
+        <v>0.82494846059754146</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>0.69350568127197665</v>
+        <v>0.76301328634830057</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0.54481791717802786</v>
+        <v>0.82163811074945359</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0.68855807298804661</v>
+        <v>0.81053593307634653</v>
       </c>
       <c r="K66" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0.89730205219142056</v>
+        <v>0.98148306245409733</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.81688277434621892</v>
+        <v>0.87350468004802506</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.81233981505919339</v>
+        <v>0.83814111311153605</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0.54328430133913441</v>
+        <v>0.83927350131880885</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0.85205861117863713</v>
+        <v>0.99433214040815932</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.80413790992981826</v>
+        <v>0.94078331758237221</v>
       </c>
     </row>
     <row r="68">
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>0.50438654993563437</v>
+        <v>0.7213945096889125</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
